--- a/info/Fixture TORNEO HUMBERTITO 2022.xlsx
+++ b/info/Fixture TORNEO HUMBERTITO 2022.xlsx
@@ -12,9 +12,10 @@
     <sheet name="C.2014" sheetId="15" r:id="rId3"/>
     <sheet name="C.2015" sheetId="18" r:id="rId4"/>
     <sheet name="C.2016" sheetId="21" r:id="rId5"/>
+    <sheet name="CANCHAS" sheetId="22" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Posiciones_Auxiliar">'[1]Posiciones Auxiliar'!$A$3:$Z$42</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="135">
   <si>
     <t>DIA</t>
   </si>
@@ -251,9 +252,6 @@
     <t>Unión de Sunchales</t>
   </si>
   <si>
-    <t>9 de julio</t>
-  </si>
-  <si>
     <t>Sportivo Norte Azul</t>
   </si>
   <si>
@@ -401,41 +399,68 @@
     <t>Bombo 4tos</t>
   </si>
   <si>
-    <t>Arg Celeste</t>
-  </si>
-  <si>
-    <t>Arg Blanco</t>
-  </si>
-  <si>
-    <t>Colon Sta Fe</t>
-  </si>
-  <si>
-    <t>Atl Rafaela</t>
-  </si>
-  <si>
-    <t>Atl Pilar</t>
-  </si>
-  <si>
-    <t>Calchaquí</t>
-  </si>
-  <si>
-    <t>Esperanza fútbol</t>
-  </si>
-  <si>
-    <t>Ataliva</t>
-  </si>
-  <si>
-    <t>Pellegrini</t>
-  </si>
-  <si>
-    <t>San José</t>
+    <t>9 de julio rojo</t>
+  </si>
+  <si>
+    <t>9 de Julio blanco</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANCHA PRINCIPAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANCHA AUXILIAR</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           CANCHA 9 DE JULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    CANCHA 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      CANCHA 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    CANCHA 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     CANCHA 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CANCHA 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CANCHA 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +496,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,12 +561,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -557,11 +601,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -638,9 +826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,10 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,6 +854,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4210,17 +4416,16 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
@@ -4234,7 +4439,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>7</v>
@@ -4261,8 +4466,8 @@
       <c r="K1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
       <c r="N1" s="27" t="s">
         <v>40</v>
       </c>
@@ -4389,7 +4594,7 @@
     </row>
     <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -4460,14 +4665,14 @@
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="E7" s="57" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>123</v>
       </c>
       <c r="G7" s="19">
         <v>6</v>
@@ -4495,9 +4700,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
       <c r="G8" s="4">
         <v>7</v>
@@ -4529,6 +4743,15 @@
       <c r="A9" t="s">
         <v>64</v>
       </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="10">
         <v>8</v>
       </c>
@@ -4557,7 +4780,16 @@
     </row>
     <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
       </c>
       <c r="G10" s="19">
         <v>9</v>
@@ -4585,9 +4817,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
       <c r="G11" s="4">
         <v>10</v>
@@ -4617,7 +4858,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="10">
         <v>11</v>
@@ -4872,8 +5113,8 @@
       <c r="K24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
       <c r="N24" s="27" t="s">
         <v>40</v>
       </c>
@@ -5033,7 +5274,7 @@
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
-      <c r="D31" s="61">
+      <c r="D31" s="58">
         <v>5</v>
       </c>
       <c r="E31" s="1"/>
@@ -5050,12 +5291,12 @@
         <v>3</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="13" t="s">
         <v>21</v>
@@ -5080,12 +5321,12 @@
         <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="13" t="s">
         <v>21</v>
@@ -5108,12 +5349,12 @@
         <v>3</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>22</v>
@@ -5142,12 +5383,12 @@
         <v>3</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="13" t="s">
         <v>23</v>
@@ -5160,17 +5401,17 @@
       </c>
       <c r="D35" s="1" t="str">
         <f ca="1">VLOOKUP(D48,D43:E45,2,)</f>
-        <v>Argentino Hto</v>
+        <v>Unión Sunchales</v>
       </c>
       <c r="E35" s="1" t="str">
         <f ca="1">VLOOKUP(D49,D43:E45,2,)</f>
-        <v>Unión Sunchales</v>
+        <v>Argentino Hto</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="str">
         <f ca="1">VLOOKUP(1,D51:E59,2,)</f>
-        <v>Chicago Juniors</v>
+        <v>B° Guemes</v>
       </c>
       <c r="D36" s="1" t="str">
         <f ca="1">VLOOKUP(2,D51:E59,2,)</f>
@@ -5182,240 +5423,240 @@
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="62" t="str">
+      <c r="C37" s="59" t="str">
         <f ca="1">VLOOKUP(4,D51:E59,2,)</f>
-        <v>Dep. Tacural</v>
-      </c>
-      <c r="D37" s="62" t="str">
+        <v>Peñarol</v>
+      </c>
+      <c r="D37" s="59" t="str">
         <f ca="1">VLOOKUP(5,D51:E59,2,)</f>
-        <v>Peñarol</v>
-      </c>
-      <c r="E37" s="62" t="str">
+        <v xml:space="preserve">Escuelita Italia </v>
+      </c>
+      <c r="E37" s="59" t="str">
         <f ca="1">VLOOKUP(6,D51:E59,2,)</f>
         <v>Veteranitos Tostado</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="62" t="str">
+      <c r="C38" s="59" t="str">
         <f ca="1">VLOOKUP(7,D51:E59,2,)</f>
-        <v>B° Guemes</v>
-      </c>
-      <c r="D38" s="62" t="str">
+        <v>Chicago Juniors</v>
+      </c>
+      <c r="D38" s="59" t="str">
         <f ca="1">VLOOKUP(8,D51:E59,2,)</f>
         <v>B° Mora Rafaela</v>
       </c>
-      <c r="E38" s="62" t="str">
+      <c r="E38" s="59" t="str">
         <f ca="1">VLOOKUP(9,D51:E59,2,)</f>
-        <v xml:space="preserve">Escuelita Italia </v>
+        <v>Dep. Tacural</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="62"/>
-      <c r="D41" s="62">
+      <c r="C41" s="59"/>
+      <c r="D41" s="59">
         <v>5</v>
       </c>
-      <c r="E41" s="62"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="62">
+      <c r="C43" s="59">
         <f ca="1">RAND()</f>
-        <v>0.68754280685623592</v>
-      </c>
-      <c r="D43" s="62">
+        <v>0.65268462996118293</v>
+      </c>
+      <c r="D43" s="59">
         <f ca="1">_xlfn.RANK.EQ(C43,$C$43:C45,)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="59" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="62">
+      <c r="C44" s="59">
         <f ca="1">RAND()</f>
-        <v>0.60589874874680394</v>
-      </c>
-      <c r="D44" s="62">
+        <v>7.8288707973936833E-2</v>
+      </c>
+      <c r="D44" s="59">
         <f ca="1">_xlfn.RANK.EQ(C44,$C$43:C46,)</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="59">
+        <f ca="1">RAND()</f>
+        <v>0.17522059443841498</v>
+      </c>
+      <c r="D45" s="59">
+        <f ca="1">_xlfn.RANK.EQ(C45,$C$43:C47,)</f>
         <v>2</v>
       </c>
-      <c r="E44" s="62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="62">
-        <f ca="1">RAND()</f>
-        <v>0.29200504910596203</v>
-      </c>
-      <c r="D45" s="62">
-        <f ca="1">_xlfn.RANK.EQ(C45,$C$43:C47,)</f>
+      <c r="E45" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="59"/>
+      <c r="D47" s="59">
+        <v>1</v>
+      </c>
+      <c r="E47" s="59"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="59"/>
+      <c r="D48" s="59">
+        <v>2</v>
+      </c>
+      <c r="E48" s="59"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="59"/>
+      <c r="D49" s="59">
         <v>3</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="62"/>
-      <c r="D47" s="62">
-        <v>1</v>
-      </c>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="62"/>
-      <c r="D48" s="62">
-        <v>2</v>
-      </c>
-      <c r="E48" s="62"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="62"/>
-      <c r="D49" s="62">
-        <v>3</v>
-      </c>
-      <c r="E49" s="62"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="62">
+      <c r="C51" s="59">
         <f t="shared" ref="C51:C59" ca="1" si="0">RAND()</f>
-        <v>1.8569365083699774E-2</v>
-      </c>
-      <c r="D51" s="62">
+        <v>0.16954206096486402</v>
+      </c>
+      <c r="D51" s="59">
         <f t="shared" ref="D51:D59" ca="1" si="1">_xlfn.RANK.EQ(C51,$C$51:$C$59,)</f>
         <v>8</v>
       </c>
-      <c r="E51" s="62" t="s">
+      <c r="E51" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="62">
+      <c r="C52" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14418445807843117</v>
-      </c>
-      <c r="D52" s="62">
+        <v>0.60388366527082371</v>
+      </c>
+      <c r="D52" s="59">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E52" s="59" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="62">
+      <c r="C53" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46694838152648688</v>
-      </c>
-      <c r="D53" s="62">
+        <v>0.91330772177637642</v>
+      </c>
+      <c r="D53" s="59">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>96</v>
+      <c r="E53" s="59" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="62">
+      <c r="C54" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12757301591152315</v>
-      </c>
-      <c r="D54" s="62">
+        <v>0.93988918388665155</v>
+      </c>
+      <c r="D54" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9382191991609443E-2</v>
+      </c>
+      <c r="D55" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89964106813796696</v>
+      </c>
+      <c r="D56" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76907731717394012</v>
+      </c>
+      <c r="D57" s="59">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5493150410900145</v>
+      </c>
+      <c r="D58" s="59">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="E54" s="62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="62">
+      <c r="E58" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36792804428812897</v>
-      </c>
-      <c r="D55" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33685600575828367</v>
-      </c>
-      <c r="D56" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E56" s="62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.405492808720743E-2</v>
-      </c>
-      <c r="D57" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E57" s="62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84344889994626482</v>
-      </c>
-      <c r="D58" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E58" s="62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79665785830162295</v>
-      </c>
-      <c r="D59" s="62">
+        <v>0.91409189141768343</v>
+      </c>
+      <c r="D59" s="59">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="E59" s="62" t="s">
-        <v>101</v>
+      <c r="E59" s="59" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5432,17 +5673,17 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -5457,7 +5698,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>7</v>
@@ -5487,8 +5728,8 @@
       <c r="L1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
       <c r="O1" s="36" t="s">
         <v>40</v>
       </c>
@@ -5540,7 +5781,7 @@
     </row>
     <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -5666,7 +5907,7 @@
     </row>
     <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="3">
         <v>5</v>
@@ -5728,17 +5969,17 @@
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="E8" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="F8" s="57" t="s">
         <v>123</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>124</v>
       </c>
       <c r="H8" s="17">
         <v>7</v>
@@ -5766,9 +6007,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
       </c>
       <c r="H9" s="23">
         <v>8</v>
@@ -5800,8 +6053,18 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="3">
         <v>9</v>
       </c>
@@ -5830,10 +6093,20 @@
     </row>
     <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H11" s="8">
         <v>10</v>
       </c>
@@ -5860,12 +6133,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H12" s="17">
         <v>11</v>
       </c>
@@ -5926,7 +6209,7 @@
     </row>
     <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -5958,7 +6241,7 @@
     </row>
     <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -5990,7 +6273,7 @@
     </row>
     <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -6311,8 +6594,8 @@
       <c r="L28" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="36" t="s">
         <v>40</v>
       </c>
@@ -6534,12 +6817,12 @@
         <v>2</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>20</v>
@@ -6559,12 +6842,12 @@
         <v>2</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>20</v>
@@ -6584,12 +6867,12 @@
         <v>2</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>21</v>
@@ -6609,12 +6892,12 @@
         <v>2</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P40" s="13" t="s">
         <v>21</v>
@@ -6634,12 +6917,12 @@
         <v>2</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>22</v>
@@ -6659,12 +6942,12 @@
         <v>2</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
       <c r="O42" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>23</v>
@@ -6683,19 +6966,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
@@ -6740,8 +7023,8 @@
       <c r="L1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
       <c r="O1" s="27" t="s">
         <v>40</v>
       </c>
@@ -6987,17 +7270,17 @@
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="E8" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="F8" s="57" t="s">
         <v>123</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>124</v>
       </c>
       <c r="H8" s="17">
         <v>7</v>
@@ -7031,16 +7314,16 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H9" s="23">
         <v>8</v>
@@ -7069,21 +7352,21 @@
       </c>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>132</v>
       </c>
       <c r="H10" s="3">
         <v>9</v>
@@ -7116,17 +7399,17 @@
       <c r="A11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>133</v>
+      <c r="C11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="8">
         <v>10</v>
@@ -7160,16 +7443,16 @@
         <v>73</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>134</v>
+        <v>73</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="H12" s="17">
         <v>11</v>
@@ -7232,7 +7515,7 @@
     </row>
     <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
@@ -7263,7 +7546,7 @@
     </row>
     <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="14"/>
       <c r="H15" s="8">
@@ -7295,7 +7578,7 @@
     </row>
     <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="14"/>
       <c r="H16" s="17">
@@ -7593,18 +7876,18 @@
       <c r="J27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="59" t="s">
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="59" t="s">
+      <c r="P27" s="56" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7822,12 +8105,12 @@
         <v>1</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>20</v>
@@ -7847,12 +8130,12 @@
         <v>1</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>20</v>
@@ -7872,12 +8155,12 @@
         <v>1</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>21</v>
@@ -7897,12 +8180,12 @@
         <v>1</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
       <c r="O39" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P39" s="13" t="s">
         <v>21</v>
@@ -7922,12 +8205,12 @@
         <v>1</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>22</v>
@@ -7947,12 +8230,12 @@
         <v>1</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P41" s="13" t="s">
         <v>23</v>
@@ -7972,7 +8255,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7980,13 +8263,13 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="3.140625" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
@@ -7994,9 +8277,9 @@
     <col min="15" max="15" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>7</v>
@@ -8008,7 +8291,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -8017,18 +8300,18 @@
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="51" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="50" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8056,7 +8339,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="4">
         <f>C2</f>
@@ -8072,7 +8355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -8096,7 +8379,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="J3" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="10">
         <f>D2</f>
@@ -8112,7 +8395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -8136,7 +8419,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="J4" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="19">
         <f>E2</f>
@@ -8152,7 +8435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -8176,7 +8459,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4">
         <f>C4</f>
@@ -8192,7 +8475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -8207,7 +8490,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J6" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="10">
         <f>D4</f>
@@ -8227,14 +8510,14 @@
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="E7" s="57" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>123</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="19">
@@ -8247,7 +8530,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="J7" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="19">
         <f>E4</f>
@@ -8263,11 +8546,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F8"/>
       <c r="G8" s="4">
         <v>7</v>
@@ -8279,7 +8570,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="4">
         <f>C2</f>
@@ -8295,11 +8586,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
       <c r="F9"/>
       <c r="G9" s="10">
         <v>8</v>
@@ -8311,7 +8610,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="J9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="10">
         <f>D2</f>
@@ -8327,11 +8626,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="F10"/>
       <c r="G10" s="19">
         <v>9</v>
@@ -8343,7 +8650,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="J10" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="19">
         <f>E2</f>
@@ -8359,9 +8666,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="C11" s="14"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
       <c r="F11"/>
       <c r="G11" s="4">
         <v>10</v>
@@ -8373,7 +8690,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="J11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="4">
         <f>C3</f>
@@ -8389,8 +8706,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="F12"/>
       <c r="G12" s="10">
@@ -8403,7 +8722,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="J12" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="10">
         <f>D3</f>
@@ -8419,7 +8738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" s="14"/>
       <c r="F13"/>
@@ -8433,7 +8752,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="J13" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="19">
         <f>E3</f>
@@ -8449,7 +8768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="F14"/>
       <c r="G14" s="4">
@@ -8462,7 +8781,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4">
         <f>C2</f>
@@ -8478,7 +8797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="F15"/>
       <c r="G15" s="10">
@@ -8491,7 +8810,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="J15" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="10">
         <f>D2</f>
@@ -8507,7 +8826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="F16"/>
       <c r="G16" s="19">
@@ -8520,7 +8839,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="J16" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="19">
         <f>E2</f>
@@ -8536,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="F17"/>
       <c r="G17" s="4">
@@ -8549,7 +8868,7 @@
         <v>0.75</v>
       </c>
       <c r="J17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4">
         <f>C3</f>
@@ -8565,7 +8884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="F18"/>
       <c r="G18" s="10">
@@ -8578,7 +8897,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="J18" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" s="10">
         <f>D3</f>
@@ -8594,7 +8913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="F19"/>
       <c r="G19" s="19">
@@ -8607,7 +8926,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="J19" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="19">
         <f>E3</f>
@@ -8623,40 +8942,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
       <c r="G20" s="26"/>
       <c r="H20" s="35"/>
       <c r="I20" s="16"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
-      <c r="G21" s="52"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="35"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="52"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="52"/>
-    </row>
-    <row r="22" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="O21" s="51"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F22" s="1"/>
       <c r="G22" s="26"/>
       <c r="H22" s="35"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F23"/>
       <c r="G23" s="26"/>
       <c r="I23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F24"/>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -8665,18 +8984,18 @@
       <c r="I24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="51" t="s">
+      <c r="J24" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="51" t="s">
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="51" t="s">
+      <c r="O24" s="50" t="s">
         <v>67</v>
       </c>
     </row>
@@ -8692,7 +9011,7 @@
         <v>0.375</v>
       </c>
       <c r="J25" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>11</v>
@@ -8706,7 +9025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26" s="13">
         <v>20</v>
@@ -8718,7 +9037,7 @@
         <v>0.40625</v>
       </c>
       <c r="J26" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>17</v>
@@ -8744,7 +9063,7 @@
         <v>0.4375</v>
       </c>
       <c r="J27" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>18</v>
@@ -8770,7 +9089,7 @@
         <v>0.46875</v>
       </c>
       <c r="J28" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>27</v>
@@ -8796,7 +9115,7 @@
         <v>0.5</v>
       </c>
       <c r="J29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>29</v>
@@ -8822,7 +9141,7 @@
         <v>0.53125</v>
       </c>
       <c r="J30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>12</v>
@@ -8848,15 +9167,15 @@
         <v>0.5625</v>
       </c>
       <c r="J31" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="13" t="s">
         <v>21</v>
@@ -8874,15 +9193,15 @@
         <v>0.59375</v>
       </c>
       <c r="J32" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="13" t="s">
         <v>21</v>
@@ -8900,15 +9219,15 @@
         <v>0.625</v>
       </c>
       <c r="J33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="10" t="s">
         <v>22</v>
@@ -8926,15 +9245,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J34" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="13" t="s">
         <v>23</v>
@@ -8951,15 +9270,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -8975,8 +9296,14 @@
     <col min="18" max="23" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H1" s="55" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="60" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -8985,24 +9312,27 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="46" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -9017,25 +9347,27 @@
         <v>5</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>$D$7</f>
+        <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="str">
-        <f>$D$4</f>
+        <f>$D$3</f>
         <v>Argentino celeste</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -9050,27 +9382,25 @@
         <v>5</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f>$D$6</f>
+        <f>$D$5</f>
         <v>Libertad</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="str">
-        <f>$D$5</f>
+        <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-    </row>
-    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4" s="4">
         <v>3</v>
@@ -9085,25 +9415,25 @@
         <v>5</v>
       </c>
       <c r="L4" s="4" t="str">
-        <f>$D$3</f>
+        <f>$D$2</f>
         <v>Argentino Blanco</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="str">
-        <f>$D$7</f>
+        <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H5" s="4">
         <v>4</v>
@@ -9118,25 +9448,25 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f>$D$4</f>
+        <f>$D$3</f>
         <v>Argentino celeste</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="str">
-        <f>$D$6</f>
+        <f>$D$5</f>
         <v>Libertad</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -9151,26 +9481,17 @@
         <v>5</v>
       </c>
       <c r="L6" s="4" t="str">
-        <f>$D$3</f>
+        <f>$D$2</f>
         <v>Argentino Blanco</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="str">
-        <f>$D$5</f>
+        <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
+    <row r="7" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="4">
         <v>3</v>
       </c>
@@ -9184,17 +9505,17 @@
         <v>5</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f>$D$7</f>
+        <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="str">
-        <f>$D$6</f>
+        <f>$D$5</f>
         <v>Libertad</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H8" s="4">
         <v>7</v>
       </c>
@@ -9208,17 +9529,17 @@
         <v>5</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f>$D$5</f>
+        <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="str">
-        <f>$D$4</f>
+        <f>$D$3</f>
         <v>Argentino celeste</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="4">
         <v>8</v>
       </c>
@@ -9232,17 +9553,17 @@
         <v>5</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f>$D$6</f>
+        <f>$D$5</f>
         <v>Libertad</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="str">
-        <f>$D$3</f>
+        <f>$D$2</f>
         <v>Argentino Blanco</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="4">
         <v>9</v>
       </c>
@@ -9256,652 +9577,835 @@
         <v>5</v>
       </c>
       <c r="L10" s="4" t="str">
-        <f>$D$5</f>
+        <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="str">
-        <f>$D$7</f>
+        <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H11" s="56"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="35"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H12" s="56"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="35"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
     </row>
     <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H13" s="56"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="35"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H14" s="56"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="81"/>
+      <c r="O14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>86</v>
+      <c r="I15" s="31">
+        <v>44822</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f>D15</f>
+        <v>Argentino Celeste</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="str">
+        <f>D18</f>
+        <v>B° Guemes</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31">
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="40">
+        <v>2</v>
+      </c>
+      <c r="I16" s="33">
         <v>44822</v>
       </c>
-      <c r="J16" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K16" s="4">
+      <c r="J16" s="39">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K16" s="40">
         <v>5</v>
       </c>
-      <c r="L16" s="4" t="str">
-        <f>D16</f>
-        <v>Argentino Celeste</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="str">
-        <f>D19</f>
-        <v>B° Guemes</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>3</v>
+      <c r="L16" s="40" t="str">
+        <f>E15</f>
+        <v>Argentino Blanco</v>
+      </c>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40" t="str">
+        <f>F15</f>
+        <v>Bella Italia</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="40">
-        <v>2</v>
-      </c>
-      <c r="I17" s="33">
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="32">
         <v>44822</v>
       </c>
-      <c r="J17" s="39">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="K17" s="40">
+      <c r="J17" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="K17" s="13">
         <v>5</v>
       </c>
-      <c r="L17" s="40" t="str">
+      <c r="L17" s="13" t="str">
+        <f>F16</f>
+        <v>Quilmes Blanco</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13" t="str">
+        <f>F17</f>
+        <v>Chicago Junior</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4</v>
+      </c>
+      <c r="I18" s="31">
+        <v>44822</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f>D16</f>
+        <v>Quilmes Azul</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="str">
+        <f>D17</f>
+        <v>Ind.San Cristobal</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H19" s="43">
+        <v>5</v>
+      </c>
+      <c r="I19" s="54">
+        <v>44822</v>
+      </c>
+      <c r="J19" s="42">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K19" s="43">
+        <v>5</v>
+      </c>
+      <c r="L19" s="43" t="str">
         <f>E16</f>
-        <v>Argentino Blanco</v>
-      </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40" t="str">
-        <f>F16</f>
-        <v>Bella Italia</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <v>Academia S.C.</v>
+      </c>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43" t="str">
+        <f>E17</f>
+        <v>Sportivo Norte</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6</v>
+      </c>
+      <c r="I20" s="29">
+        <v>44822</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f>D17</f>
+        <v>Ind.San Cristobal</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="str">
+        <f>D18</f>
+        <v>B° Guemes</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="13">
-        <v>3</v>
-      </c>
-      <c r="I18" s="32">
-        <v>44822</v>
-      </c>
-      <c r="J18" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="K18" s="13">
-        <v>5</v>
-      </c>
-      <c r="L18" s="13" t="str">
-        <f>F17</f>
-        <v>Quilmes Blanco</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13" t="str">
-        <f>F18</f>
-        <v>Chicago Junior</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="4">
-        <v>4</v>
-      </c>
-      <c r="I19" s="31">
-        <v>44822</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <f>D17</f>
-        <v>Quilmes Azul</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="str">
-        <f>D18</f>
-        <v>Ind.San Cristobal</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H20" s="43">
-        <v>5</v>
-      </c>
-      <c r="I20" s="57">
-        <v>44822</v>
-      </c>
-      <c r="J20" s="42">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K20" s="43">
-        <v>5</v>
-      </c>
-      <c r="L20" s="43" t="str">
-        <f>E17</f>
-        <v>Academia S.C.</v>
-      </c>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43" t="str">
-        <f>E18</f>
-        <v>Sportivo Norte</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="H21" s="40">
+        <v>7</v>
+      </c>
+      <c r="I21" s="55">
+        <v>44822</v>
+      </c>
+      <c r="J21" s="39">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K21" s="40">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="4">
-        <v>6</v>
-      </c>
-      <c r="I21" s="29">
-        <v>44822</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <f>D18</f>
-        <v>Ind.San Cristobal</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4" t="str">
-        <f>D19</f>
-        <v>B° Guemes</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="40" t="str">
+        <f>E17</f>
+        <v>Sportivo Norte</v>
+      </c>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40" t="str">
+        <f>F17</f>
+        <v>Chicago Junior</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="H22" s="40">
-        <v>7</v>
-      </c>
-      <c r="I22" s="58">
+      <c r="H22" s="13">
+        <v>8</v>
+      </c>
+      <c r="I22" s="32">
         <v>44822</v>
       </c>
-      <c r="J22" s="39">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K22" s="40">
+      <c r="J22" s="12">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K22" s="13">
         <v>5</v>
       </c>
-      <c r="L22" s="40" t="str">
-        <f>E18</f>
-        <v>Sportivo Norte</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40" t="str">
-        <f>F18</f>
-        <v>Chicago Junior</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>87</v>
+      <c r="L22" s="13" t="str">
+        <f>F15</f>
+        <v>Bella Italia</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13" t="str">
+        <f>F16</f>
+        <v>Quilmes Blanco</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="H23" s="13">
+      <c r="E23" s="14"/>
+      <c r="H23" s="4">
+        <v>9</v>
+      </c>
+      <c r="I23" s="31">
+        <v>44822</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f>D15</f>
+        <v>Argentino Celeste</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="str">
+        <f>D16</f>
+        <v>Quilmes Azul</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>8</v>
       </c>
-      <c r="I23" s="32">
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="H24" s="43">
+        <v>10</v>
+      </c>
+      <c r="I24" s="54">
         <v>44822</v>
       </c>
-      <c r="J23" s="12">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="K23" s="13">
+      <c r="J24" s="42">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K24" s="43">
         <v>5</v>
       </c>
-      <c r="L23" s="13" t="str">
-        <f>F16</f>
-        <v>Bella Italia</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13" t="str">
-        <f>F17</f>
-        <v>Quilmes Blanco</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E24" s="14"/>
-      <c r="H24" s="4">
-        <v>9</v>
-      </c>
-      <c r="I24" s="31">
-        <v>44822</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f>D16</f>
-        <v>Argentino Celeste</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4" t="str">
-        <f>D17</f>
-        <v>Quilmes Azul</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="43" t="str">
+        <f>E15</f>
+        <v>Argentino Blanco</v>
+      </c>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43" t="str">
+        <f>E16</f>
+        <v>Academia S.C.</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="H25" s="43">
-        <v>10</v>
-      </c>
-      <c r="I25" s="57">
+      <c r="H25" s="4">
+        <v>11</v>
+      </c>
+      <c r="I25" s="31">
         <v>44822</v>
       </c>
-      <c r="J25" s="42">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="K25" s="43">
+      <c r="J25" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K25" s="4">
         <v>5</v>
       </c>
-      <c r="L25" s="43" t="str">
-        <f>E16</f>
-        <v>Argentino Blanco</v>
-      </c>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43" t="str">
-        <f>E17</f>
-        <v>Academia S.C.</v>
-      </c>
-      <c r="P25" s="41" t="s">
-        <v>4</v>
+      <c r="L25" s="4" t="str">
+        <f>D16</f>
+        <v>Quilmes Azul</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="str">
+        <f>D18</f>
+        <v>B° Guemes</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="H26" s="4">
-        <v>11</v>
-      </c>
-      <c r="I26" s="31">
+      <c r="H26" s="40">
+        <v>12</v>
+      </c>
+      <c r="I26" s="55">
         <v>44822</v>
       </c>
-      <c r="J26" s="5">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="J26" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="K26" s="40">
         <v>5</v>
       </c>
-      <c r="L26" s="4" t="str">
+      <c r="L26" s="40" t="str">
+        <f>E16</f>
+        <v>Academia S.C.</v>
+      </c>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40" t="str">
+        <f>F16</f>
+        <v>Quilmes Blanco</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="14"/>
+      <c r="H27" s="13">
+        <v>13</v>
+      </c>
+      <c r="I27" s="32">
+        <v>44822</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K27" s="13">
+        <v>5</v>
+      </c>
+      <c r="L27" s="13" t="str">
+        <f>F17</f>
+        <v>Chicago Junior</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="str">
+        <f>F15</f>
+        <v>Bella Italia</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E28" s="14"/>
+      <c r="H28" s="4">
+        <v>14</v>
+      </c>
+      <c r="I28" s="31">
+        <v>44822</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4" t="str">
         <f>D17</f>
-        <v>Quilmes Azul</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4" t="str">
-        <f>D19</f>
-        <v>B° Guemes</v>
-      </c>
-      <c r="P26" s="3" t="s">
+        <v>Ind.San Cristobal</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="str">
+        <f>D15</f>
+        <v>Argentino Celeste</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="H27" s="40">
-        <v>12</v>
-      </c>
-      <c r="I27" s="58">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="H29" s="43">
+        <v>15</v>
+      </c>
+      <c r="I29" s="54">
         <v>44822</v>
       </c>
-      <c r="J27" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="K27" s="40">
+      <c r="J29" s="42">
+        <v>0.625</v>
+      </c>
+      <c r="K29" s="43">
         <v>5</v>
       </c>
-      <c r="L27" s="40" t="str">
+      <c r="L29" s="43" t="str">
         <f>E17</f>
-        <v>Academia S.C.</v>
-      </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40" t="str">
-        <f>F17</f>
-        <v>Quilmes Blanco</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E28" s="14"/>
-      <c r="H28" s="13">
-        <v>13</v>
-      </c>
-      <c r="I28" s="32">
-        <v>44822</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="K28" s="13">
-        <v>5</v>
-      </c>
-      <c r="L28" s="13" t="str">
-        <f>F18</f>
-        <v>Chicago Junior</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13" t="str">
-        <f>F16</f>
-        <v>Bella Italia</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E29" s="14"/>
-      <c r="H29" s="4">
-        <v>14</v>
-      </c>
-      <c r="I29" s="31">
-        <v>44822</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5</v>
-      </c>
-      <c r="L29" s="4" t="str">
-        <f>D18</f>
-        <v>Ind.San Cristobal</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4" t="str">
-        <f>D16</f>
-        <v>Argentino Celeste</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+        <v>Sportivo Norte</v>
+      </c>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43" t="str">
+        <f>E15</f>
+        <v>Argentino Blanco</v>
+      </c>
+      <c r="P29" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
-      <c r="H30" s="43">
-        <v>15</v>
-      </c>
-      <c r="I30" s="57">
-        <v>44822</v>
-      </c>
-      <c r="J30" s="42">
-        <v>0.625</v>
-      </c>
-      <c r="K30" s="43">
-        <v>5</v>
-      </c>
-      <c r="L30" s="43" t="str">
-        <f>E18</f>
-        <v>Sportivo Norte</v>
-      </c>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43" t="str">
-        <f>E16</f>
-        <v>Argentino Blanco</v>
-      </c>
-      <c r="P30" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="D31" s="1"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="15"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="15"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="53"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="15"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H32" s="56"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H32" s="53"/>
       <c r="I32" s="35"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-    </row>
-    <row r="33" spans="8:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H33" s="56"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H33" s="53"/>
       <c r="I33" s="35"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H34" s="56"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-    </row>
-    <row r="35" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="K35" s="26"/>
+      <c r="K34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="O25 L5 O6 L9" formula="1"/>
+    <ignoredError sqref="O24 L5 L9 O6" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="F1" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="J1" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="F5" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
+      <c r="J5" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68">
+        <v>2012</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68">
+        <v>2013</v>
+      </c>
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68">
+        <v>2014</v>
+      </c>
+      <c r="L7" s="69"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="76"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="77"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="F13" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68">
+        <v>2014</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="F14" s="78">
+        <v>2015</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="78">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info/Fixture TORNEO HUMBERTITO 2022.xlsx
+++ b/info/Fixture TORNEO HUMBERTITO 2022.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_42622E4934AB349327D44BE4352DC625D9FE78B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EBF62C-BE79-4AFE-9408-CBADC83BDB55}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9060" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C.2012" sheetId="16" r:id="rId1"/>
@@ -20,12 +21,22 @@
   <definedNames>
     <definedName name="Posiciones_Auxiliar">'[1]Posiciones Auxiliar'!$A$3:$Z$42</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="136">
   <si>
     <t>DIA</t>
   </si>
@@ -455,11 +466,14 @@
   <si>
     <t xml:space="preserve">  CANCHA 5</t>
   </si>
+  <si>
+    <t>balnearia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,9 +763,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,9 +775,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -772,9 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,19 +805,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -823,40 +828,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -864,13 +842,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4169,7 +4146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4202,9 +4179,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4237,6 +4231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4412,73 +4423,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1"/>
-    <col min="12" max="13" width="2.42578125" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" customWidth="1"/>
+    <col min="12" max="13" width="2.44140625" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -4488,36 +4504,39 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="27">
         <v>44821</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <f>C3</f>
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>69</v>
       </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
       <c r="C3">
         <v>4</v>
       </c>
@@ -4527,36 +4546,39 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="26">
         <v>44821</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>3</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9">
         <f>D3</f>
         <v>5</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>70</v>
       </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
       <c r="C4">
         <v>7</v>
       </c>
@@ -4566,36 +4588,39 @@
       <c r="E4">
         <v>9</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <v>3</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="30">
         <v>44821</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <v>0.3888888888888889</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="16">
         <v>3</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16">
         <f>E3</f>
         <v>6</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
       <c r="C5">
         <v>10</v>
       </c>
@@ -4605,105 +4630,114 @@
       <c r="E5">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <v>44821</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f>C4</f>
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="10">
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="26">
         <v>44821</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.44444444444444442</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>3</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f>D4</f>
         <v>8</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <v>6</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <v>44821</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>0.47222222222222227</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>3</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <f>E4</f>
         <v>9</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8" t="s">
         <v>88</v>
       </c>
@@ -4713,36 +4747,39 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <v>44821</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <f>C4</f>
         <v>7</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
       <c r="C9" t="s">
         <v>63</v>
       </c>
@@ -4752,910 +4789,902 @@
       <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="26">
         <v>44821</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.52777777777777779</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>3</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
         <f>D4</f>
         <v>8</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>9</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>44821</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>0.55555555555555558</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <v>3</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16">
         <f>E4</f>
         <v>9</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="27">
         <v>44821</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>3</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f>C3</f>
         <v>4</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="10">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
         <v>11</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <v>44821</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.61111111111111105</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>3</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f>D3</f>
         <v>5</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G13" s="19">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G13" s="16">
         <v>12</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="30">
         <v>44821</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>0.63888888888888895</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <v>3</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="16">
         <f>E3</f>
         <v>6</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G14" s="4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
         <v>13</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <v>44821</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G15" s="10">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G15" s="9">
         <v>14</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="26">
         <v>44821</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.69444444444444453</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G16" s="19">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="16">
         <v>15</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="30">
         <v>44821</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>0.72222222222222221</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <v>3</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G17" s="4">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="27">
         <v>44821</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.75</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f>C3</f>
         <v>4</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <f>C4</f>
         <v>7</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G18" s="10">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G18" s="9">
         <v>17</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <v>44821</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0.77777777777777779</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>3</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f>D3</f>
         <v>5</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9">
         <f>D4</f>
         <v>8</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G19" s="19">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="16">
         <v>18</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="30">
         <v>44821</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>0.80555555555555547</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <v>3</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="16">
         <f>E3</f>
         <v>6</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16">
         <f>E4</f>
         <v>9</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="24" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G24" s="27" t="s">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H20" s="31"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H21" s="31"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="H22" s="31"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="27" t="s">
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="G25" s="13">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G25" s="12">
         <v>19</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="28">
         <v>44822</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>0.375</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="13" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G26" s="13">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G26" s="12">
         <v>20</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="28">
         <v>44822</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <v>3</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="13" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="G27" s="13">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G27" s="12">
         <v>21</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="28">
         <v>44822</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>0.4375</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>3</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="13" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="13">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G28" s="12">
         <v>22</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="28">
         <v>44822</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>0.46875</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <v>3</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="13" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="G29" s="10">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G29" s="9">
         <v>23</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="26">
         <v>44822</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>0.5</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>3</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="10" t="s">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="G30" s="10">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G30" s="9">
         <v>24</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="26">
         <v>44822</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>0.53125</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>3</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="10" t="s">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="58">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D31" s="45">
         <v>5</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>25</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="28">
         <v>44822</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>0.5625</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>3</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="13" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>26</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="28">
         <v>44822</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>0.59375</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <v>3</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="13" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="G33" s="10">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="G33" s="9">
         <v>27</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="26">
         <v>44822</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>0.625</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>3</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="10" t="s">
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>28</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="28">
         <v>44822</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>3</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="13" t="s">
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="str">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C35" t="str">
         <f ca="1">VLOOKUP(D47,D43:E45,2,)</f>
         <v>Atlético de Rafaela</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D35" t="str">
         <f ca="1">VLOOKUP(D48,D43:E45,2,)</f>
+        <v>Argentino Hto</v>
+      </c>
+      <c r="E35" t="str">
+        <f ca="1">VLOOKUP(D49,D43:E45,2,)</f>
         <v>Unión Sunchales</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f ca="1">VLOOKUP(D49,D43:E45,2,)</f>
-        <v>Argentino Hto</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="str">
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C36" t="str">
         <f ca="1">VLOOKUP(1,D51:E59,2,)</f>
         <v>B° Guemes</v>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D36" t="str">
         <f ca="1">VLOOKUP(2,D51:E59,2,)</f>
-        <v>Esc. San José S.C.</v>
-      </c>
-      <c r="E36" s="1" t="str">
+        <v>Dep. Tacural</v>
+      </c>
+      <c r="E36" t="str">
         <f ca="1">VLOOKUP(3,D51:E59,2,)</f>
         <v>Academia S.C.</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C37" s="59" t="str">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="46" t="str">
         <f ca="1">VLOOKUP(4,D51:E59,2,)</f>
+        <v>Veteranitos Tostado</v>
+      </c>
+      <c r="D37" s="46" t="str">
+        <f ca="1">VLOOKUP(5,D51:E59,2,)</f>
         <v>Peñarol</v>
       </c>
-      <c r="D37" s="59" t="str">
-        <f ca="1">VLOOKUP(5,D51:E59,2,)</f>
+      <c r="E37" s="46" t="str">
+        <f ca="1">VLOOKUP(6,D51:E59,2,)</f>
         <v xml:space="preserve">Escuelita Italia </v>
       </c>
-      <c r="E37" s="59" t="str">
-        <f ca="1">VLOOKUP(6,D51:E59,2,)</f>
-        <v>Veteranitos Tostado</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C38" s="59" t="str">
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="46" t="str">
         <f ca="1">VLOOKUP(7,D51:E59,2,)</f>
+        <v>B° Mora Rafaela</v>
+      </c>
+      <c r="D38" s="46" t="str">
+        <f ca="1">VLOOKUP(8,D51:E59,2,)</f>
+        <v>Esc. San José S.C.</v>
+      </c>
+      <c r="E38" s="46" t="str">
+        <f ca="1">VLOOKUP(9,D51:E59,2,)</f>
         <v>Chicago Juniors</v>
       </c>
-      <c r="D38" s="59" t="str">
-        <f ca="1">VLOOKUP(8,D51:E59,2,)</f>
-        <v>B° Mora Rafaela</v>
-      </c>
-      <c r="E38" s="59" t="str">
-        <f ca="1">VLOOKUP(9,D51:E59,2,)</f>
-        <v>Dep. Tacural</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C41" s="59"/>
-      <c r="D41" s="59">
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46">
         <v>5</v>
       </c>
-      <c r="E41" s="59"/>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="59">
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C43" s="46">
         <f ca="1">RAND()</f>
-        <v>0.65268462996118293</v>
-      </c>
-      <c r="D43" s="59">
+        <v>0.83878593604902452</v>
+      </c>
+      <c r="D43" s="46">
         <f ca="1">_xlfn.RANK.EQ(C43,$C$43:C45,)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C44" s="59">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C44" s="46">
         <f ca="1">RAND()</f>
-        <v>7.8288707973936833E-2</v>
-      </c>
-      <c r="D44" s="59">
+        <v>0.82741861650705029</v>
+      </c>
+      <c r="D44" s="46">
         <f ca="1">_xlfn.RANK.EQ(C44,$C$43:C46,)</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="46">
+        <f ca="1">RAND()</f>
+        <v>0.56861605513435998</v>
+      </c>
+      <c r="D45" s="46">
+        <f ca="1">_xlfn.RANK.EQ(C45,$C$43:C47,)</f>
         <v>3</v>
       </c>
-      <c r="E44" s="59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="59">
-        <f ca="1">RAND()</f>
-        <v>0.17522059443841498</v>
-      </c>
-      <c r="D45" s="59">
-        <f ca="1">_xlfn.RANK.EQ(C45,$C$43:C47,)</f>
+      <c r="E45" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46">
+        <v>1</v>
+      </c>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46">
         <v>2</v>
       </c>
-      <c r="E45" s="59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" s="59"/>
-      <c r="D47" s="59">
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="46"/>
+      <c r="D49" s="46">
+        <v>3</v>
+      </c>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="46">
+        <f t="shared" ref="C51:C59" ca="1" si="0">RAND()</f>
+        <v>0.29047437664290221</v>
+      </c>
+      <c r="D51" s="46">
+        <f t="shared" ref="D51:D59" ca="1" si="1">_xlfn.RANK.EQ(C51,$C$51:$C$59,)</f>
+        <v>7</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" s="46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42188979229684975</v>
+      </c>
+      <c r="D52" s="46">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4560596423416915</v>
+      </c>
+      <c r="D53" s="46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53701827202280006</v>
+      </c>
+      <c r="D54" s="46">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="E47" s="59"/>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" s="59"/>
-      <c r="D48" s="59">
+      <c r="E54" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45800549441892224</v>
+      </c>
+      <c r="D55" s="46">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="E48" s="59"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="59"/>
-      <c r="D49" s="59">
-        <v>3</v>
-      </c>
-      <c r="E49" s="59"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="59">
-        <f t="shared" ref="C51:C59" ca="1" si="0">RAND()</f>
-        <v>0.16954206096486402</v>
-      </c>
-      <c r="D51" s="59">
-        <f t="shared" ref="D51:D59" ca="1" si="1">_xlfn.RANK.EQ(C51,$C$51:$C$59,)</f>
-        <v>8</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="59">
+      <c r="E55" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60388366527082371</v>
-      </c>
-      <c r="D52" s="59">
+        <v>0.30024105883196262</v>
+      </c>
+      <c r="D56" s="46">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29550925093744662</v>
+      </c>
+      <c r="D57" s="46">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="E52" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="59">
+      <c r="E57" s="46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91330772177637642</v>
-      </c>
-      <c r="D53" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E53" s="59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93988918388665155</v>
-      </c>
-      <c r="D54" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="59">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9382191991609443E-2</v>
-      </c>
-      <c r="D55" s="59">
+        <v>0.23119186165560635</v>
+      </c>
+      <c r="D58" s="46">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="E55" s="59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="59">
+      <c r="E58" s="46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89964106813796696</v>
-      </c>
-      <c r="D56" s="59">
+        <v>0.28396304450775278</v>
+      </c>
+      <c r="D59" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E56" s="59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76907731717394012</v>
-      </c>
-      <c r="D57" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5493150410900145</v>
-      </c>
-      <c r="D58" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="59">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91409189141768343</v>
-      </c>
-      <c r="D59" s="59">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E59" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="46" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5669,78 +5698,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
     <col min="13" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="37"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="36" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -5753,36 +5787,39 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="25">
         <v>44821</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
       <c r="C3">
         <v>5</v>
       </c>
@@ -5795,36 +5832,39 @@
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <v>44821</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <f>D3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
       <c r="C4">
         <v>9</v>
       </c>
@@ -5837,36 +5877,39 @@
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>3</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="30">
         <v>44821</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <v>2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <f>E3</f>
         <v>7</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
       <c r="C5">
         <v>13</v>
       </c>
@@ -5879,138 +5922,150 @@
       <c r="F5">
         <v>16</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="29">
         <v>44821</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>2</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <f>F3</f>
         <v>8</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25">
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22">
         <f>F4</f>
         <v>12</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="3">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="25">
         <v>44821</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>2</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="26">
         <v>44821</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.47222222222222227</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>2</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
         <f>D3</f>
         <v>6</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>7</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="30">
         <v>44821</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <v>0.5</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <v>2</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <f>E3</f>
         <v>7</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
       <c r="C9" t="s">
         <v>88</v>
       </c>
@@ -6023,78 +6078,84 @@
       <c r="F9" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="29">
         <v>44821</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>2</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <f>F2</f>
         <v>4</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f>F3</f>
         <v>8</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>9</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="27">
         <v>44821</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>9</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
       <c r="C11" t="s">
         <v>89</v>
       </c>
@@ -6104,39 +6165,42 @@
       <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>10</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="26">
         <v>44821</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>9</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
         <f>D5</f>
         <v>14</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -6146,810 +6210,791 @@
       <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>11</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="30">
         <v>44821</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>0.61111111111111105</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="16">
         <v>9</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="16">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
         <f>E5</f>
         <v>15</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="H13" s="23">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="H13" s="20">
         <v>12</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>44821</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <v>0.63888888888888895</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="22">
         <v>9</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="22">
         <f>F4</f>
         <v>12</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <f>F5</f>
         <v>16</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="H14" s="3">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
         <v>13</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <v>44821</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="H15" s="8">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7">
         <v>14</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="26">
         <v>44821</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>2</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="H16" s="17">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="H16" s="14">
         <v>15</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="30">
         <v>44821</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>0.61111111111111105</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <v>2</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="H17" s="23">
+    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H17" s="20">
         <v>16</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="29">
         <v>44821</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="21">
         <v>0.63888888888888895</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <v>2</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="22">
         <f>F2</f>
         <v>4</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
         <f>F4</f>
         <v>12</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="H18" s="3">
+    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H18" s="2">
         <v>17</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="27">
         <v>44821</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="H19" s="8">
+    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H19" s="7">
         <v>18</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="26">
         <v>44821</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>2</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f>D3</f>
         <v>6</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9">
         <f>D5</f>
         <v>14</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="H20" s="17">
+    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H20" s="14">
         <v>19</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="30">
         <v>44821</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="15">
         <v>0.72222222222222221</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <v>2</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="16">
         <f>E3</f>
         <v>7</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19">
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
         <f>E5</f>
         <v>15</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="H21" s="23">
+    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="20">
         <v>20</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="29">
         <v>44821</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="21">
         <v>0.75</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="22">
         <v>2</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="22">
         <f>F3</f>
         <v>8</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
         <f>F5</f>
         <v>16</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="H22" s="3">
+    </row>
+    <row r="22" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H22" s="2">
         <v>21</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>44821</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="H23" s="8">
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H23" s="7">
         <v>22</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="26">
         <v>44821</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>0.80555555555555547</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>2</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9">
         <f>D5</f>
         <v>14</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="H24" s="17">
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H24" s="14">
         <v>23</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="30">
         <v>44821</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="16">
         <v>2</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19">
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16">
         <f>E5</f>
         <v>15</v>
       </c>
-      <c r="P24" s="19" t="s">
+      <c r="P24" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="H25" s="23">
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H25" s="20">
         <v>24</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="29">
         <v>44821</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="21">
         <v>0.86111111111111116</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="22">
         <v>2</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="22">
         <f>F2</f>
         <v>4</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
         <f>F5</f>
         <v>16</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="26"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="K27" s="26"/>
-      <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H28" s="2" t="s">
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="J26" s="13"/>
+      <c r="K26" s="23"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K27" s="23"/>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="36" t="s">
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P28" s="36" t="s">
+      <c r="P28" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H29" s="8">
+    <row r="29" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H29" s="7">
         <v>25</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="26">
         <v>44822</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>2</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="10" t="s">
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H30" s="8">
+    <row r="30" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H30" s="7">
         <v>26</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <v>44822</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>2</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="10" t="s">
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H31" s="8">
+    <row r="31" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H31" s="7">
         <v>27</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="26">
         <v>44822</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>2</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="10" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H32" s="8">
+    <row r="32" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H32" s="7">
         <v>28</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="26">
         <v>44822</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>2</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="10" t="s">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="10" t="s">
+      <c r="P32" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H33" s="11">
+    <row r="33" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H33" s="10">
         <v>29</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="28">
         <v>44822</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>0.44444444444444442</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="12">
         <v>2</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="13" t="s">
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H34" s="11">
+    <row r="34" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H34" s="10">
         <v>30</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="28">
         <v>44822</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <v>2</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="13" t="s">
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H35" s="11">
+    <row r="35" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H35" s="10">
         <v>31</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="28">
         <v>44822</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>0.5</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <v>2</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="13" t="s">
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H36" s="11">
+    <row r="36" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H36" s="10">
         <v>32</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="28">
         <v>44822</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="12">
         <v>2</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="13" t="s">
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P36" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H37" s="8">
+    <row r="37" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H37" s="7">
         <v>33</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="26">
         <v>44822</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <v>0.55555555555555558</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>2</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="10" t="s">
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P37" s="10" t="s">
+      <c r="P37" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H38" s="8">
+    <row r="38" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H38" s="7">
         <v>34</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="26">
         <v>44822</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <v>2</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="10" t="s">
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="P38" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H39" s="11">
+    <row r="39" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H39" s="10">
         <v>35</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="28">
         <v>44822</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>0.61111111111111105</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <v>2</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="13" t="s">
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H40" s="11">
+    <row r="40" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H40" s="10">
         <v>36</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="28">
         <v>44822</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="12">
         <v>2</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="13" t="s">
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H41" s="8">
+    <row r="41" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H41" s="7">
         <v>37</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="26">
         <v>44822</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>2</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="10" t="s">
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P41" s="10" t="s">
+      <c r="P41" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H42" s="11">
+    <row r="42" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H42" s="10">
         <v>38</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="28">
         <v>44822</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="12">
         <v>2</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="13" t="s">
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6963,78 +7008,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="27" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>43</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7048,36 +7098,38 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="25">
         <v>44821</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>1</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>44</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -7091,36 +7143,38 @@
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <v>44821</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <f>D3</f>
         <v>6</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>9</v>
@@ -7134,36 +7188,38 @@
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>3</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="30">
         <v>44821</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <v>1</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <f>E3</f>
         <v>7</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>46</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -7177,1067 +7233,1078 @@
       <c r="F5">
         <v>16</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="29">
         <v>44821</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>1</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <f>F3</f>
         <v>8</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25">
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22">
         <f>F4</f>
         <v>12</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="3">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="25">
         <v>44821</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.44444444444444442</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="8">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="26">
         <v>44821</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.47222222222222227</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
         <f>D3</f>
         <v>6</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>7</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="30">
         <v>44821</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <v>0.5</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <v>1</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16">
         <f>E3</f>
         <v>7</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>51</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="29">
         <v>44821</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="22">
         <v>1</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="22">
         <f>F2</f>
         <v>4</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f>F3</f>
         <v>8</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>9</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="27">
         <v>44821</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>10</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="26">
         <v>44821</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
         <f>D5</f>
         <v>14</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>11</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="30">
         <v>44821</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>0.61111111111111105</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="16">
         <v>1</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="16">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16">
         <f>E5</f>
         <v>15</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="H13" s="23">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="20">
         <v>12</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>44821</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <v>0.63888888888888895</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="22">
         <v>1</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="22">
         <f>F4</f>
         <v>12</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <f>F5</f>
         <v>16</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="3">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2">
         <v>13</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="25">
         <v>44821</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="H15" s="8">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7">
         <v>14</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="26">
         <v>44821</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>1</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
         <f>D4</f>
         <v>10</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>15</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="30">
         <v>44821</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>0.72222222222222221</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <v>1</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
         <f>E4</f>
         <v>11</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="H17" s="23">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H17" s="20">
         <v>16</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="29">
         <v>44821</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="21">
         <v>0.75</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <v>1</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="22">
         <f>F2</f>
         <v>4</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25">
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
         <f>F4</f>
         <v>12</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-      <c r="H18" s="3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
         <v>17</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="27">
         <v>44821</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>9</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="14"/>
-      <c r="H19" s="8">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H19" s="7">
         <v>18</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="26">
         <v>44821</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>0.80555555555555547</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>9</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f>D3</f>
         <v>6</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9">
         <f>D5</f>
         <v>14</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="H20" s="17">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H20" s="14">
         <v>19</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="30">
         <v>44821</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <v>9</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="16">
         <f>E3</f>
         <v>7</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19">
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
         <f>E5</f>
         <v>15</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="H21" s="23">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="20">
         <v>20</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="29">
         <v>44821</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="21">
         <v>0.86111111111111116</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="22">
         <v>9</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="22">
         <f>F3</f>
         <v>8</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
         <f>F5</f>
         <v>16</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="H22" s="3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H22" s="2">
         <v>21</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="25">
         <v>44821</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
         <f>C5</f>
         <v>13</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="H23" s="8">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H23" s="7">
         <v>22</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="26">
         <v>44821</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>0.80555555555555547</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>1</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9">
         <f>D5</f>
         <v>14</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="H24" s="17">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H24" s="14">
         <v>23</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="30">
         <v>44821</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="16">
         <v>1</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19">
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16">
         <f>E5</f>
         <v>15</v>
       </c>
-      <c r="P24" s="19" t="s">
+      <c r="P24" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H25" s="23">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H25" s="20">
         <v>24</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="29">
         <v>44821</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="21">
         <v>0.86111111111111116</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="22">
         <v>1</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="22">
         <f>F2</f>
         <v>4</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
         <f>F5</f>
         <v>16</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="J26" s="16"/>
-      <c r="K26" s="26"/>
-      <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H27" s="2" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J26" s="13"/>
+      <c r="K26" s="23"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="56" t="s">
+      <c r="L27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="56" t="s">
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="56" t="s">
+      <c r="P27" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H28" s="8">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H28" s="7">
         <v>25</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="26">
         <v>44822</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>1</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="10" t="s">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H29" s="8">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H29" s="7">
         <v>26</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="26">
         <v>44822</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>1</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="10" t="s">
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="P29" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="8">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H30" s="7">
         <v>27</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="26">
         <v>44822</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>0.3888888888888889</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>1</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="10" t="s">
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="8">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H31" s="7">
         <v>28</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="26">
         <v>44822</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>1</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="10" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="11">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H32" s="10">
         <v>29</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="28">
         <v>44822</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>0.44444444444444442</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <v>1</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="13" t="s">
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="P32" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H33" s="11">
+    <row r="33" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H33" s="10">
         <v>30</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="28">
         <v>44822</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="12">
         <v>1</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="13" t="s">
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H34" s="11">
+    <row r="34" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H34" s="10">
         <v>31</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="28">
         <v>44822</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>0.5</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <v>1</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="13" t="s">
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H35" s="11">
+    <row r="35" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H35" s="10">
         <v>32</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="28">
         <v>44822</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="12">
         <v>1</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="13" t="s">
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H36" s="8">
+    <row r="36" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H36" s="7">
         <v>33</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="26">
         <v>44822</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>0.55555555555555558</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>1</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="10" t="s">
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="P36" s="10" t="s">
+      <c r="P36" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H37" s="8">
+    <row r="37" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H37" s="7">
         <v>34</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="26">
         <v>44822</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>1</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="10" t="s">
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P37" s="10" t="s">
+      <c r="P37" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H38" s="11">
+    <row r="38" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H38" s="10">
         <v>35</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="28">
         <v>44822</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>0.61111111111111105</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <v>1</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="13" t="s">
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="P38" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H39" s="11">
+    <row r="39" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H39" s="10">
         <v>36</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="28">
         <v>44822</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <v>1</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="13" t="s">
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H40" s="8">
+    <row r="40" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H40" s="7">
         <v>37</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="26">
         <v>44822</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <v>1</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="10" t="s">
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="P40" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H41" s="11">
+    <row r="41" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H41" s="10">
         <v>38</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="28">
         <v>44822</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="11">
         <v>0.69444444444444453</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="12">
         <v>1</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="13" t="s">
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8251,74 +8318,80 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="26" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1"/>
+      <c r="G1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -8329,36 +8402,39 @@
         <v>3</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="27">
         <v>44821</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>4</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <f>C3</f>
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
       <c r="C3">
         <v>4</v>
       </c>
@@ -8369,36 +8445,39 @@
         <v>6</v>
       </c>
       <c r="F3"/>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="26">
         <v>44821</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.3611111111111111</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>4</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9">
         <f>D3</f>
         <v>5</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
       <c r="C4">
         <v>7</v>
       </c>
@@ -8409,36 +8488,39 @@
         <v>9</v>
       </c>
       <c r="F4"/>
-      <c r="G4" s="19">
+      <c r="G4" s="16">
         <v>3</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="30">
         <v>44821</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <v>0.3888888888888889</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="16">
         <v>4</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16">
         <f>E3</f>
         <v>6</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
       <c r="C5">
         <v>10</v>
       </c>
@@ -8449,146 +8531,158 @@
         <v>12</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <v>44821</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f>C4</f>
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
       <c r="F6"/>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="26">
         <v>44821</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.44444444444444442</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>4</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f>D4</f>
         <v>8</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="44" t="s">
         <v>122</v>
       </c>
       <c r="F7"/>
-      <c r="G7" s="19">
+      <c r="G7" s="16">
         <v>6</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <v>44821</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>0.47222222222222227</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="16">
         <v>4</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <f>E4</f>
         <v>9</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>74</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <v>44821</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>4</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <f>C4</f>
         <v>7</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>124</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -8600,662 +8694,657 @@
         <v>64</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="26">
         <v>44821</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>0.52777777777777779</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>4</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
         <f>D4</f>
         <v>8</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>125</v>
       </c>
       <c r="F10"/>
-      <c r="G10" s="19">
+      <c r="G10" s="16">
         <v>9</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>44821</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>0.55555555555555558</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <v>4</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16">
         <f>E4</f>
         <v>9</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
       </c>
       <c r="F11"/>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>10</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="27">
         <v>44821</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>4</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f>C3</f>
         <v>4</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="F12"/>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>11</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="26">
         <v>44821</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.61111111111111105</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>4</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f>D3</f>
         <v>5</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="14"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F13"/>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <v>12</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="30">
         <v>44821</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>0.63888888888888895</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <v>4</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="16">
         <f>E3</f>
         <v>6</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F14"/>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>13</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="27">
         <v>44821</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>4</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f>C2</f>
         <v>1</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <f>C5</f>
         <v>10</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F15"/>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>14</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="26">
         <v>44821</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.69444444444444453</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>4</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f>D2</f>
         <v>2</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9">
         <f>D5</f>
         <v>11</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F16"/>
-      <c r="G16" s="19">
+      <c r="G16" s="16">
         <v>15</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="30">
         <v>44821</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>0.72222222222222221</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="16">
         <v>4</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <f>E2</f>
         <v>3</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16">
         <f>E5</f>
         <v>12</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F17"/>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="27">
         <v>44821</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.75</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f>C3</f>
         <v>4</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <f>C4</f>
         <v>7</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+    <row r="18" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F18"/>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>17</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <v>44821</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0.77777777777777779</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>4</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f>D3</f>
         <v>5</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9">
         <f>D4</f>
         <v>8</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F19"/>
-      <c r="G19" s="19">
+      <c r="G19" s="16">
         <v>18</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="30">
         <v>44821</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>0.80555555555555547</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <v>4</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="16">
         <f>E3</f>
         <v>6</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16">
         <f>E4</f>
         <v>9</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="16"/>
+    <row r="20" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F20"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="13"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="51"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F21"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="13"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F23"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="23"/>
       <c r="I23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F24"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="50" t="s">
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F25"/>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>19</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="28">
         <v>44822</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>0.375</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>4</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="13" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F26"/>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <v>20</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="28">
         <v>44822</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>0.40625</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <v>4</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="13" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F27"/>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <v>21</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="28">
         <v>44822</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>0.4375</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>4</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="13" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F28"/>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <v>22</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="28">
         <v>44822</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>0.46875</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <v>4</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="13" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F29"/>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>23</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="26">
         <v>44822</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>0.5</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>4</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="10" t="s">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F30"/>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>24</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="26">
         <v>44822</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>0.53125</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>4</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="10" t="s">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F31"/>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>25</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="28">
         <v>44822</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>0.5625</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>4</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="13" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F32"/>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <v>26</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="28">
         <v>44822</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>0.59375</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <v>4</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="13" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F33"/>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>27</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="26">
         <v>44822</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>0.625</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>4</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="10" t="s">
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F34"/>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>28</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="28">
         <v>44822</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>4</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="13" t="s">
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9269,62 +9358,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="60" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9334,32 +9423,32 @@
       <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="27">
         <v>44821</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="str">
+      <c r="L2" s="3" t="str">
         <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="str">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="str">
         <f>$D$3</f>
         <v>Argentino celeste</v>
       </c>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9369,30 +9458,30 @@
       <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="27">
         <v>44821</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.4375</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>5</v>
       </c>
-      <c r="L3" s="4" t="str">
+      <c r="L3" s="3" t="str">
         <f>$D$5</f>
         <v>Libertad</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="str">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="str">
         <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9402,30 +9491,30 @@
       <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="27">
         <v>44821</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>5</v>
       </c>
-      <c r="L4" s="4" t="str">
+      <c r="L4" s="3" t="str">
         <f>$D$2</f>
         <v>Argentino Blanco</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="str">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="str">
         <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9435,30 +9524,30 @@
       <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="27">
         <v>44821</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="4" t="str">
+      <c r="L5" s="3" t="str">
         <f>$D$3</f>
         <v>Argentino celeste</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="str">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="str">
         <f>$D$5</f>
         <v>Libertad</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9468,195 +9557,192 @@
       <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="27">
         <v>44821</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>5</v>
       </c>
-      <c r="L6" s="4" t="str">
+      <c r="L6" s="3" t="str">
         <f>$D$2</f>
         <v>Argentino Blanco</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="str">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="str">
         <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="4">
+    <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="27">
         <v>44821</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="L7" s="4" t="str">
+      <c r="L7" s="3" t="str">
         <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="str">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="str">
         <f>$D$5</f>
         <v>Libertad</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="4">
+    <row r="8" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="27">
         <v>44821</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0.5625</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="L8" s="4" t="str">
+      <c r="L8" s="3" t="str">
         <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="str">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="str">
         <f>$D$3</f>
         <v>Argentino celeste</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="4">
+    <row r="9" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="27">
         <v>44821</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>5</v>
       </c>
-      <c r="L9" s="4" t="str">
+      <c r="L9" s="3" t="str">
         <f>$D$5</f>
         <v>Libertad</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="str">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="str">
         <f>$D$2</f>
         <v>Argentino Blanco</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="4">
+    <row r="10" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="3">
         <v>9</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="27">
         <v>44821</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>5</v>
       </c>
-      <c r="L10" s="4" t="str">
+      <c r="L10" s="3" t="str">
         <f>$D$4</f>
         <v>Barrio Guemes</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="str">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3" t="str">
         <f>$D$6</f>
         <v>Chicago Juniors</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H11" s="53"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H12" s="53"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H13" s="53"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I11" s="31"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I12" s="31"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I13" s="31"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="81" t="s">
+      <c r="M14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="66"/>
+      <c r="O14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9669,36 +9755,36 @@
       <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="27">
         <v>44822</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>5</v>
       </c>
-      <c r="L15" s="4" t="str">
+      <c r="L15" s="3" t="str">
         <f>D15</f>
         <v>Argentino Celeste</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4" t="str">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="str">
         <f>D18</f>
         <v>B° Guemes</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9714,33 +9800,33 @@
       <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="35">
         <v>2</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="29">
         <v>44822</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="34">
         <v>0.35416666666666669</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="35">
         <v>5</v>
       </c>
-      <c r="L16" s="40" t="str">
+      <c r="L16" s="35" t="str">
         <f>E15</f>
         <v>Argentino Blanco</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40" t="str">
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35" t="str">
         <f>F15</f>
         <v>Bella Italia</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9756,33 +9842,33 @@
       <c r="F17" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>3</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="28">
         <v>44822</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.375</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>5</v>
       </c>
-      <c r="L17" s="13" t="str">
+      <c r="L17" s="12" t="str">
         <f>F16</f>
         <v>Quilmes Blanco</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13" t="str">
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12" t="str">
         <f>F17</f>
         <v>Chicago Junior</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -9792,418 +9878,401 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>4</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="27">
         <v>44822</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>5</v>
       </c>
-      <c r="L18" s="4" t="str">
+      <c r="L18" s="3" t="str">
         <f>D16</f>
         <v>Quilmes Azul</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4" t="str">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3" t="str">
         <f>D17</f>
         <v>Ind.San Cristobal</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H19" s="43">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H19" s="38">
         <v>5</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="42">
         <v>44822</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="37">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="38">
         <v>5</v>
       </c>
-      <c r="L19" s="43" t="str">
+      <c r="L19" s="38" t="str">
         <f>E16</f>
         <v>Academia S.C.</v>
       </c>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43" t="str">
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38" t="str">
         <f>E17</f>
         <v>Sportivo Norte</v>
       </c>
-      <c r="P19" s="41" t="s">
+      <c r="P19" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>6</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="25">
         <v>44822</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>0.4375</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>5</v>
       </c>
-      <c r="L20" s="4" t="str">
+      <c r="L20" s="3" t="str">
         <f>D17</f>
         <v>Ind.San Cristobal</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4" t="str">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="str">
         <f>D18</f>
         <v>B° Guemes</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="H21" s="40">
+      <c r="H21" s="35">
         <v>7</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="43">
         <v>44822</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="34">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="35">
         <v>5</v>
       </c>
-      <c r="L21" s="40" t="str">
+      <c r="L21" s="35" t="str">
         <f>E17</f>
         <v>Sportivo Norte</v>
       </c>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40" t="str">
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35" t="str">
         <f>F17</f>
         <v>Chicago Junior</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="P21" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>8</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="28">
         <v>44822</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>5</v>
       </c>
-      <c r="L22" s="13" t="str">
+      <c r="L22" s="12" t="str">
         <f>F15</f>
         <v>Bella Italia</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13" t="str">
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12" t="str">
         <f>F16</f>
         <v>Quilmes Blanco</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E23" s="14"/>
-      <c r="H23" s="4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H23" s="3">
         <v>9</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="27">
         <v>44822</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>0.5</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>5</v>
       </c>
-      <c r="L23" s="4" t="str">
+      <c r="L23" s="3" t="str">
         <f>D15</f>
         <v>Argentino Celeste</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4" t="str">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="str">
         <f>D16</f>
         <v>Quilmes Azul</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="H24" s="43">
+      <c r="H24" s="38">
         <v>10</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="42">
         <v>44822</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="37">
         <v>0.52083333333333337</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="38">
         <v>5</v>
       </c>
-      <c r="L24" s="43" t="str">
+      <c r="L24" s="38" t="str">
         <f>E15</f>
         <v>Argentino Blanco</v>
       </c>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43" t="str">
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38" t="str">
         <f>E16</f>
         <v>Academia S.C.</v>
       </c>
-      <c r="P24" s="41" t="s">
+      <c r="P24" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>11</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="27">
         <v>44822</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>5</v>
       </c>
-      <c r="L25" s="4" t="str">
+      <c r="L25" s="3" t="str">
         <f>D16</f>
         <v>Quilmes Azul</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4" t="str">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="str">
         <f>D18</f>
         <v>B° Guemes</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="H26" s="40">
+      <c r="H26" s="35">
         <v>12</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="43">
         <v>44822</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="34">
         <v>0.5625</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="35">
         <v>5</v>
       </c>
-      <c r="L26" s="40" t="str">
+      <c r="L26" s="35" t="str">
         <f>E16</f>
         <v>Academia S.C.</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40" t="str">
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35" t="str">
         <f>F16</f>
         <v>Quilmes Blanco</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="P26" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="14"/>
-      <c r="H27" s="13">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H27" s="12">
         <v>13</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="28">
         <v>44822</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <v>5</v>
       </c>
-      <c r="L27" s="13" t="str">
+      <c r="L27" s="12" t="str">
         <f>F17</f>
         <v>Chicago Junior</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13" t="str">
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12" t="str">
         <f>F15</f>
         <v>Bella Italia</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="14"/>
-      <c r="H28" s="4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H28" s="3">
         <v>14</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="27">
         <v>44822</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>5</v>
       </c>
-      <c r="L28" s="4" t="str">
+      <c r="L28" s="3" t="str">
         <f>D17</f>
         <v>Ind.San Cristobal</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4" t="str">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3" t="str">
         <f>D15</f>
         <v>Argentino Celeste</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="H29" s="43">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H29" s="38">
         <v>15</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="42">
         <v>44822</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="37">
         <v>0.625</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="38">
         <v>5</v>
       </c>
-      <c r="L29" s="43" t="str">
+      <c r="L29" s="38" t="str">
         <f>E17</f>
         <v>Sportivo Norte</v>
       </c>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43" t="str">
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38" t="str">
         <f>E15</f>
         <v>Argentino Blanco</v>
       </c>
-      <c r="P29" s="41" t="s">
+      <c r="P29" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="15"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="53"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="53"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-    </row>
-    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H33" s="53"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-    </row>
-    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="K34" s="26"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J30" s="13"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I31" s="31"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I32" s="31"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I33" s="31"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10218,192 +10287,183 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="J1" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="F5" s="67" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="F5" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
-      <c r="J5" s="67" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="J5" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="69"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="67"/>
-      <c r="C6" s="68">
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
         <v>2013</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68">
+      <c r="D6" s="55"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54">
         <v>2012</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68">
+      <c r="H6" s="55"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54">
         <v>2013</v>
       </c>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68">
+      <c r="L6" s="55"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54">
         <v>2014</v>
       </c>
-      <c r="L7" s="69"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="76"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="77"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="L7" s="55"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="F9" s="59"/>
+      <c r="H9" s="60"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="F11" s="62"/>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="F12" s="62"/>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="F13" s="77" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="F13" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="62" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
-      <c r="C14" s="68">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54">
         <v>2014</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="F14" s="78">
+      <c r="D14" s="55"/>
+      <c r="F14" s="63">
         <v>2015</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="78">
+      <c r="H14" s="63">
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="77"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="79"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="F15" s="62"/>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
